--- a/outputs-GTDB-r202/g__RC9.xlsx
+++ b/outputs-GTDB-r202/g__RC9.xlsx
@@ -1672,7 +1672,7 @@
       </c>
       <c r="EX2" t="inlineStr">
         <is>
-          <t>s__RC9 sp900319185</t>
+          <t>s__RC9 sp900319185(reject)</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="EX8" t="inlineStr">
         <is>
-          <t>s__RC9 sp900318445</t>
+          <t>s__RC9 sp900318445(reject)</t>
         </is>
       </c>
     </row>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="EX19" t="inlineStr">
         <is>
-          <t>s__RC9 sp002392525</t>
+          <t>s__RC9 sp002392525(reject)</t>
         </is>
       </c>
     </row>
@@ -15302,7 +15302,7 @@
       </c>
       <c r="EX31" t="inlineStr">
         <is>
-          <t>s__RC9 sp900319975</t>
+          <t>s__RC9 sp900319975(reject)</t>
         </is>
       </c>
     </row>
@@ -22352,7 +22352,7 @@
       </c>
       <c r="EX46" t="inlineStr">
         <is>
-          <t>s__RC9 sp002354005</t>
+          <t>s__RC9 sp002354005(reject)</t>
         </is>
       </c>
     </row>
@@ -27522,7 +27522,7 @@
       </c>
       <c r="EX57" t="inlineStr">
         <is>
-          <t>s__RC9 sp900319185</t>
+          <t>s__RC9 sp900319185(reject)</t>
         </is>
       </c>
     </row>
